--- a/TO DO LIST APP GANATT.xlsx
+++ b/TO DO LIST APP GANATT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C18DB78-BE30-4667-9E80-B3D3F20303F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461BCB1-87B7-4902-A0D2-5981067F92C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{63A82910-9565-453B-9A84-D1D71B80C704}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63A82910-9565-453B-9A84-D1D71B80C704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>TO-DO-LIST APP</t>
   </si>
@@ -108,13 +108,46 @@
   </si>
   <si>
     <t>Group Members: Jimmy Nguyen, Samantha Treasure, Brett Lewis, Jasiah Peppers</t>
+  </si>
+  <si>
+    <t>Feburary  3, 2025</t>
+  </si>
+  <si>
+    <t>Ganatt Chart Updated</t>
+  </si>
+  <si>
+    <t>Established Database Connection</t>
+  </si>
+  <si>
+    <t>Local Backend Connectivity</t>
+  </si>
+  <si>
+    <t>Task Creation Feature</t>
+  </si>
+  <si>
+    <t>Fetch API Integration</t>
+  </si>
+  <si>
+    <t>Frontend-Backend Integration</t>
+  </si>
+  <si>
+    <t>Jasiah/Brett</t>
+  </si>
+  <si>
+    <t>Feburary  10, 2025</t>
+  </si>
+  <si>
+    <t>Feburary  17, 2025</t>
+  </si>
+  <si>
+    <t>Feburary  24, 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +187,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +255,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -246,38 +303,146 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.59999389629810485"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -285,42 +450,60 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,1137 +838,1593 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B698A-0A3B-40F1-B65E-C9FDD336CE1D}">
-  <dimension ref="A1:AF217"/>
+  <dimension ref="A1:AW217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="32" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="58" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="120.75" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:49" ht="120.75" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A1" s="18"/>
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-    </row>
-    <row r="2" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+    </row>
+    <row r="2" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-    </row>
-    <row r="3" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-    </row>
-    <row r="4" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="26" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="1:49" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+    </row>
+    <row r="5" spans="1:49" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="28">
+        <v>20</v>
+      </c>
+      <c r="I5" s="29">
+        <v>21</v>
+      </c>
+      <c r="J5" s="29">
+        <v>22</v>
+      </c>
+      <c r="K5" s="29">
+        <v>23</v>
+      </c>
+      <c r="L5" s="29">
+        <v>24</v>
+      </c>
+      <c r="M5" s="29">
+        <v>25</v>
+      </c>
+      <c r="N5" s="29">
+        <v>26</v>
+      </c>
+      <c r="O5" s="29">
+        <v>27</v>
+      </c>
+      <c r="P5" s="29">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>29</v>
+      </c>
+      <c r="R5" s="29">
+        <v>30</v>
+      </c>
+      <c r="S5" s="29">
+        <v>31</v>
+      </c>
+      <c r="T5" s="29">
+        <v>1</v>
+      </c>
+      <c r="U5" s="29">
+        <v>2</v>
+      </c>
+      <c r="V5" s="29">
+        <v>3</v>
+      </c>
+      <c r="W5" s="29">
+        <v>4</v>
+      </c>
+      <c r="X5" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="29">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>11</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="29">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="29">
         <v>14</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="8">
+      <c r="AH5" s="29">
+        <v>15</v>
+      </c>
+      <c r="AI5" s="29">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="29">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="29">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="29">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="29">
         <v>20</v>
       </c>
-      <c r="I5" s="8">
+      <c r="AN5" s="29">
         <v>21</v>
       </c>
-      <c r="J5" s="8">
+      <c r="AO5" s="29">
         <v>22</v>
       </c>
-      <c r="K5" s="10">
+      <c r="AP5" s="29">
         <v>23</v>
       </c>
-      <c r="L5" s="8">
+      <c r="AQ5" s="29">
         <v>24</v>
       </c>
-      <c r="M5" s="8">
+      <c r="AR5" s="29">
         <v>25</v>
       </c>
-      <c r="N5" s="8">
+      <c r="AS5" s="29">
         <v>26</v>
       </c>
-      <c r="O5" s="8">
+      <c r="AT5" s="29">
         <v>27</v>
       </c>
-      <c r="P5" s="8">
+      <c r="AU5" s="29">
         <v>28</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="AV5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW6" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45680</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45682</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45680</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45683</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45680</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45682</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45680</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45682</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45680</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45682</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45680</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45682</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:49" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>45682</v>
+      </c>
+      <c r="F16" s="39">
+        <v>45696</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="6"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>45682</v>
+      </c>
+      <c r="F17" s="39">
+        <v>45688</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>45682</v>
+      </c>
+      <c r="F18" s="39">
+        <v>45688</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="6"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
+        <v>45682</v>
+      </c>
+      <c r="F19" s="39">
+        <v>45688</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="6"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+    </row>
+    <row r="20" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="8">
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="39">
+        <v>45682</v>
+      </c>
+      <c r="F20" s="39">
+        <v>45688</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="6"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+    </row>
+    <row r="21" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="8">
+      <c r="C21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="8">
-        <v>1</v>
-      </c>
-      <c r="U5" s="8">
-        <v>2</v>
-      </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-    </row>
-    <row r="6" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="5">
-        <v>45680</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="39">
         <v>45682</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="F21" s="39">
+        <v>45696</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="6"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+    </row>
+    <row r="22" spans="1:27" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>45680</v>
-      </c>
-      <c r="F10" s="5">
-        <v>45683</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>45680</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="39">
         <v>45682</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>45680</v>
-      </c>
-      <c r="F12" s="5">
-        <v>45682</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>45680</v>
-      </c>
-      <c r="F13" s="5">
-        <v>45682</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>45680</v>
-      </c>
-      <c r="F14" s="5">
-        <v>45682</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:32" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="12"/>
+      <c r="F22" s="39">
+        <v>45696</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="23" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="6"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+    </row>
+    <row r="24" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="6"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+    </row>
+    <row r="25" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="6"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="12"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="12"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="12"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="12"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="12"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="12"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="12"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="12"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="12"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="12"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="12"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="12"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="12"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K46" s="12"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K47" s="12"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K48" s="12"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K49" s="12"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="12"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="12"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="12"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="12"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K54" s="12"/>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K55" s="12"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K56" s="12"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K57" s="12"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K58" s="12"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K59" s="12"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K60" s="12"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K61" s="12"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K62" s="12"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K63" s="12"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K64" s="12"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="12"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="12"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K67" s="12"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="12"/>
+      <c r="K68" s="6"/>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K69" s="12"/>
+      <c r="K69" s="6"/>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="12"/>
+      <c r="K70" s="6"/>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K71" s="12"/>
+      <c r="K71" s="6"/>
     </row>
     <row r="72" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K72" s="12"/>
+      <c r="K72" s="6"/>
     </row>
     <row r="73" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K73" s="12"/>
+      <c r="K73" s="6"/>
     </row>
     <row r="74" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K74" s="12"/>
+      <c r="K74" s="6"/>
     </row>
     <row r="75" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K75" s="12"/>
+      <c r="K75" s="6"/>
     </row>
     <row r="76" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K76" s="12"/>
+      <c r="K76" s="6"/>
     </row>
     <row r="77" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K77" s="12"/>
+      <c r="K77" s="6"/>
     </row>
     <row r="78" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K78" s="12"/>
+      <c r="K78" s="6"/>
     </row>
     <row r="79" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K79" s="12"/>
+      <c r="K79" s="6"/>
     </row>
     <row r="80" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K80" s="12"/>
+      <c r="K80" s="6"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K81" s="12"/>
+      <c r="K81" s="6"/>
     </row>
     <row r="82" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K82" s="12"/>
+      <c r="K82" s="6"/>
     </row>
     <row r="83" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K83" s="12"/>
+      <c r="K83" s="6"/>
     </row>
     <row r="84" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K84" s="12"/>
+      <c r="K84" s="6"/>
     </row>
     <row r="85" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K85" s="12"/>
+      <c r="K85" s="6"/>
     </row>
     <row r="86" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K86" s="12"/>
+      <c r="K86" s="6"/>
     </row>
     <row r="87" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K87" s="12"/>
+      <c r="K87" s="6"/>
     </row>
     <row r="88" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K88" s="12"/>
+      <c r="K88" s="6"/>
     </row>
     <row r="89" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K89" s="12"/>
+      <c r="K89" s="6"/>
     </row>
     <row r="90" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K90" s="12"/>
+      <c r="K90" s="6"/>
     </row>
     <row r="91" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K91" s="12"/>
+      <c r="K91" s="6"/>
     </row>
     <row r="92" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K92" s="12"/>
+      <c r="K92" s="6"/>
     </row>
     <row r="93" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K93" s="12"/>
+      <c r="K93" s="6"/>
     </row>
     <row r="94" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K94" s="12"/>
+      <c r="K94" s="6"/>
     </row>
     <row r="95" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K95" s="12"/>
+      <c r="K95" s="6"/>
     </row>
     <row r="96" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K96" s="12"/>
+      <c r="K96" s="6"/>
     </row>
     <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97" s="12"/>
+      <c r="K97" s="6"/>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="12"/>
+      <c r="K98" s="6"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99" s="12"/>
+      <c r="K99" s="6"/>
     </row>
     <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100" s="12"/>
+      <c r="K100" s="6"/>
     </row>
     <row r="101" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K101" s="12"/>
+      <c r="K101" s="6"/>
     </row>
     <row r="102" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K102" s="12"/>
+      <c r="K102" s="6"/>
     </row>
     <row r="103" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K103" s="12"/>
+      <c r="K103" s="6"/>
     </row>
     <row r="104" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K104" s="12"/>
+      <c r="K104" s="6"/>
     </row>
     <row r="105" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K105" s="12"/>
+      <c r="K105" s="6"/>
     </row>
     <row r="106" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K106" s="12"/>
+      <c r="K106" s="6"/>
     </row>
     <row r="107" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K107" s="12"/>
+      <c r="K107" s="6"/>
     </row>
     <row r="108" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K108" s="12"/>
+      <c r="K108" s="6"/>
     </row>
     <row r="109" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K109" s="12"/>
+      <c r="K109" s="6"/>
     </row>
     <row r="110" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K110" s="12"/>
+      <c r="K110" s="6"/>
     </row>
     <row r="111" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K111" s="12"/>
+      <c r="K111" s="6"/>
     </row>
     <row r="112" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K112" s="12"/>
+      <c r="K112" s="6"/>
     </row>
     <row r="113" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K113" s="12"/>
+      <c r="K113" s="6"/>
     </row>
     <row r="114" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K114" s="12"/>
+      <c r="K114" s="6"/>
     </row>
     <row r="115" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K115" s="12"/>
+      <c r="K115" s="6"/>
     </row>
     <row r="116" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K116" s="12"/>
+      <c r="K116" s="6"/>
     </row>
     <row r="117" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K117" s="12"/>
+      <c r="K117" s="6"/>
     </row>
     <row r="118" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K118" s="12"/>
+      <c r="K118" s="6"/>
     </row>
     <row r="119" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K119" s="12"/>
+      <c r="K119" s="6"/>
     </row>
     <row r="120" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K120" s="12"/>
+      <c r="K120" s="6"/>
     </row>
     <row r="121" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K121" s="12"/>
+      <c r="K121" s="6"/>
     </row>
     <row r="122" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K122" s="12"/>
+      <c r="K122" s="6"/>
     </row>
     <row r="123" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K123" s="12"/>
+      <c r="K123" s="6"/>
     </row>
     <row r="124" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K124" s="12"/>
+      <c r="K124" s="6"/>
     </row>
     <row r="125" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K125" s="12"/>
+      <c r="K125" s="6"/>
     </row>
     <row r="126" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K126" s="12"/>
+      <c r="K126" s="6"/>
     </row>
     <row r="127" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K127" s="12"/>
+      <c r="K127" s="6"/>
     </row>
     <row r="128" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K128" s="12"/>
+      <c r="K128" s="6"/>
     </row>
     <row r="129" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K129" s="12"/>
+      <c r="K129" s="6"/>
     </row>
     <row r="130" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K130" s="12"/>
+      <c r="K130" s="6"/>
     </row>
     <row r="131" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K131" s="12"/>
+      <c r="K131" s="6"/>
     </row>
     <row r="132" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K132" s="12"/>
+      <c r="K132" s="6"/>
     </row>
     <row r="133" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K133" s="12"/>
+      <c r="K133" s="6"/>
     </row>
     <row r="134" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K134" s="12"/>
+      <c r="K134" s="6"/>
     </row>
     <row r="135" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K135" s="12"/>
+      <c r="K135" s="6"/>
     </row>
     <row r="136" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K136" s="12"/>
+      <c r="K136" s="6"/>
     </row>
     <row r="137" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K137" s="12"/>
+      <c r="K137" s="6"/>
     </row>
     <row r="138" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K138" s="12"/>
+      <c r="K138" s="6"/>
     </row>
     <row r="139" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K139" s="12"/>
+      <c r="K139" s="6"/>
     </row>
     <row r="140" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K140" s="12"/>
+      <c r="K140" s="6"/>
     </row>
     <row r="141" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K141" s="12"/>
+      <c r="K141" s="6"/>
     </row>
     <row r="142" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K142" s="12"/>
+      <c r="K142" s="6"/>
     </row>
     <row r="143" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K143" s="12"/>
+      <c r="K143" s="6"/>
     </row>
     <row r="144" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K144" s="12"/>
+      <c r="K144" s="6"/>
     </row>
     <row r="145" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K145" s="12"/>
+      <c r="K145" s="6"/>
     </row>
     <row r="146" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K146" s="12"/>
+      <c r="K146" s="6"/>
     </row>
     <row r="147" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K147" s="12"/>
+      <c r="K147" s="6"/>
     </row>
     <row r="148" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K148" s="12"/>
+      <c r="K148" s="6"/>
     </row>
     <row r="149" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K149" s="12"/>
+      <c r="K149" s="6"/>
     </row>
     <row r="150" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K150" s="12"/>
+      <c r="K150" s="6"/>
     </row>
     <row r="151" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K151" s="12"/>
+      <c r="K151" s="6"/>
     </row>
     <row r="152" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K152" s="12"/>
+      <c r="K152" s="6"/>
     </row>
     <row r="153" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K153" s="12"/>
+      <c r="K153" s="6"/>
     </row>
     <row r="154" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K154" s="12"/>
+      <c r="K154" s="6"/>
     </row>
     <row r="155" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K155" s="12"/>
+      <c r="K155" s="6"/>
     </row>
     <row r="156" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K156" s="12"/>
+      <c r="K156" s="6"/>
     </row>
     <row r="157" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K157" s="12"/>
+      <c r="K157" s="6"/>
     </row>
     <row r="158" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K158" s="12"/>
+      <c r="K158" s="6"/>
     </row>
     <row r="159" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K159" s="12"/>
+      <c r="K159" s="6"/>
     </row>
     <row r="160" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K160" s="12"/>
+      <c r="K160" s="6"/>
     </row>
     <row r="161" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K161" s="12"/>
+      <c r="K161" s="6"/>
     </row>
     <row r="162" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K162" s="12"/>
+      <c r="K162" s="6"/>
     </row>
     <row r="163" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K163" s="12"/>
+      <c r="K163" s="6"/>
     </row>
     <row r="164" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K164" s="12"/>
+      <c r="K164" s="6"/>
     </row>
     <row r="165" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K165" s="12"/>
+      <c r="K165" s="6"/>
     </row>
     <row r="166" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K166" s="12"/>
+      <c r="K166" s="6"/>
     </row>
     <row r="167" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K167" s="12"/>
+      <c r="K167" s="6"/>
     </row>
     <row r="168" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K168" s="12"/>
+      <c r="K168" s="6"/>
     </row>
     <row r="169" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K169" s="12"/>
+      <c r="K169" s="6"/>
     </row>
     <row r="170" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K170" s="12"/>
+      <c r="K170" s="6"/>
     </row>
     <row r="171" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K171" s="12"/>
+      <c r="K171" s="6"/>
     </row>
     <row r="172" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K172" s="12"/>
+      <c r="K172" s="6"/>
     </row>
     <row r="173" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K173" s="12"/>
+      <c r="K173" s="6"/>
     </row>
     <row r="174" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K174" s="12"/>
+      <c r="K174" s="6"/>
     </row>
     <row r="175" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K175" s="12"/>
+      <c r="K175" s="6"/>
     </row>
     <row r="176" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K176" s="12"/>
+      <c r="K176" s="6"/>
     </row>
     <row r="177" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K177" s="12"/>
+      <c r="K177" s="6"/>
     </row>
     <row r="178" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K178" s="12"/>
+      <c r="K178" s="6"/>
     </row>
     <row r="179" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K179" s="12"/>
+      <c r="K179" s="6"/>
     </row>
     <row r="180" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K180" s="12"/>
+      <c r="K180" s="6"/>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K181" s="12"/>
+      <c r="K181" s="6"/>
     </row>
     <row r="182" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K182" s="12"/>
+      <c r="K182" s="6"/>
     </row>
     <row r="183" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K183" s="12"/>
+      <c r="K183" s="6"/>
     </row>
     <row r="184" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K184" s="12"/>
+      <c r="K184" s="6"/>
     </row>
     <row r="185" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K185" s="12"/>
+      <c r="K185" s="6"/>
     </row>
     <row r="186" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K186" s="12"/>
+      <c r="K186" s="6"/>
     </row>
     <row r="187" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K187" s="12"/>
+      <c r="K187" s="6"/>
     </row>
     <row r="188" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K188" s="12"/>
+      <c r="K188" s="6"/>
     </row>
     <row r="189" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K189" s="12"/>
+      <c r="K189" s="6"/>
     </row>
     <row r="190" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K190" s="12"/>
+      <c r="K190" s="6"/>
     </row>
     <row r="191" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K191" s="12"/>
+      <c r="K191" s="6"/>
     </row>
     <row r="192" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K192" s="12"/>
+      <c r="K192" s="6"/>
     </row>
     <row r="193" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K193" s="12"/>
+      <c r="K193" s="6"/>
     </row>
     <row r="194" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K194" s="12"/>
+      <c r="K194" s="6"/>
     </row>
     <row r="195" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K195" s="12"/>
+      <c r="K195" s="6"/>
     </row>
     <row r="196" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K196" s="12"/>
+      <c r="K196" s="6"/>
     </row>
     <row r="197" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K197" s="12"/>
+      <c r="K197" s="6"/>
     </row>
     <row r="198" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K198" s="12"/>
+      <c r="K198" s="6"/>
     </row>
     <row r="199" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K199" s="12"/>
+      <c r="K199" s="6"/>
     </row>
     <row r="200" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K200" s="12"/>
+      <c r="K200" s="6"/>
     </row>
     <row r="201" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K201" s="12"/>
+      <c r="K201" s="6"/>
     </row>
     <row r="202" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K202" s="12"/>
+      <c r="K202" s="6"/>
     </row>
     <row r="203" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K203" s="12"/>
+      <c r="K203" s="6"/>
     </row>
     <row r="204" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K204" s="12"/>
+      <c r="K204" s="6"/>
     </row>
     <row r="205" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K205" s="12"/>
+      <c r="K205" s="6"/>
     </row>
     <row r="206" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K206" s="12"/>
+      <c r="K206" s="6"/>
     </row>
     <row r="207" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K207" s="12"/>
+      <c r="K207" s="6"/>
     </row>
     <row r="208" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K208" s="12"/>
+      <c r="K208" s="6"/>
     </row>
     <row r="209" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K209" s="12"/>
+      <c r="K209" s="6"/>
     </row>
     <row r="210" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K210" s="12"/>
+      <c r="K210" s="6"/>
     </row>
     <row r="211" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K211" s="12"/>
+      <c r="K211" s="6"/>
     </row>
     <row r="212" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K212" s="12"/>
+      <c r="K212" s="6"/>
     </row>
     <row r="213" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K213" s="12"/>
+      <c r="K213" s="6"/>
     </row>
     <row r="214" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K214" s="12"/>
+      <c r="K214" s="6"/>
     </row>
     <row r="215" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K215" s="12"/>
+      <c r="K215" s="6"/>
     </row>
     <row r="216" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K216" s="12"/>
+      <c r="K216" s="6"/>
     </row>
     <row r="217" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K217" s="12"/>
+      <c r="K217" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="H2:AC2"/>
+    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9">
     <cfRule type="dataBar" priority="2">
@@ -1801,7 +2440,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D14">
+  <conditionalFormatting sqref="D9:D25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1816,6 +2455,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1844,7 +2484,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D9:D14</xm:sqref>
+          <xm:sqref>D9:D25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
